--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rico\Desktop\SFU UNI FOLDER\2020 Spring\ENSC 350\ExU\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8C6DDA-626D-4E75-9BAD-74DE0BF60C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E3AB59-284D-4716-8A26-CC5FFA9DFD14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -79,6 +79,18 @@
   <si>
     <t>Started reading about the implementation of Arithmetic Unit</t>
   </si>
+  <si>
+    <t>9:50pm</t>
+  </si>
+  <si>
+    <t>9:55pm</t>
+  </si>
+  <si>
+    <t>10:45pm</t>
+  </si>
+  <si>
+    <t>Setup modelsim</t>
+  </si>
 </sst>
 </file>
 
@@ -87,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1009]d/mmm/yy;@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,10 +677,10 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -679,7 +691,7 @@
     <col min="8" max="33" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -687,7 +699,7 @@
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
     </row>
-    <row r="2" spans="1:7" ht="24.95" customHeight="1">
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -695,7 +707,7 @@
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
     </row>
-    <row r="3" spans="1:7" ht="24.95" customHeight="1">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -703,8 +715,8 @@
       <c r="C3" s="3"/>
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -727,7 +739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1">
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
         <v>4794</v>
       </c>
@@ -737,1037 +749,1049 @@
       <c r="D6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="21"/>
+      <c r="E6" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1">
-      <c r="B7" s="13"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="22"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1">
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13"/>
       <c r="C8" s="10"/>
       <c r="D8" s="19"/>
       <c r="E8" s="22"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1">
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="10"/>
       <c r="D9" s="19"/>
       <c r="E9" s="22"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1">
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>
       <c r="C10" s="10"/>
       <c r="D10" s="19"/>
       <c r="E10" s="22"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1">
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
       <c r="C11" s="10"/>
       <c r="D11" s="19"/>
       <c r="E11" s="22"/>
       <c r="G11" s="13"/>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1">
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
       <c r="E12" s="22"/>
       <c r="G12" s="13"/>
     </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1">
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
       <c r="C13" s="10"/>
       <c r="D13" s="19"/>
       <c r="E13" s="22"/>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1">
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="10"/>
       <c r="D14" s="19"/>
       <c r="E14" s="22"/>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1">
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="10"/>
       <c r="D15" s="19"/>
       <c r="E15" s="22"/>
       <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1">
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="19"/>
       <c r="E16" s="22"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="2:7" ht="24.95" customHeight="1">
+    <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="10"/>
       <c r="D17" s="19"/>
       <c r="E17" s="22"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="2:7" ht="24.95" customHeight="1">
+    <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
       <c r="C18" s="10"/>
       <c r="D18" s="19"/>
       <c r="E18" s="22"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="2:7" ht="24.95" customHeight="1">
+    <row r="19" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="10"/>
       <c r="D19" s="19"/>
       <c r="E19" s="22"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="2:7" ht="24.95" customHeight="1">
+    <row r="20" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="13"/>
       <c r="C20" s="10"/>
       <c r="D20" s="19"/>
       <c r="E20" s="22"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="2:7" ht="24.95" customHeight="1">
+    <row r="21" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13"/>
       <c r="C21" s="10"/>
       <c r="D21" s="19"/>
       <c r="E21" s="22"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="2:7" ht="24.95" customHeight="1">
+    <row r="22" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13"/>
       <c r="C22" s="10"/>
       <c r="D22" s="19"/>
       <c r="E22" s="22"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="2:7" ht="24.95" customHeight="1">
+    <row r="23" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="13"/>
       <c r="C23" s="10"/>
       <c r="D23" s="19"/>
       <c r="E23" s="22"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="2:7" ht="24.95" customHeight="1">
+    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="13"/>
       <c r="C24" s="10"/>
       <c r="D24" s="19"/>
       <c r="E24" s="22"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="2:7" ht="24.95" customHeight="1">
+    <row r="25" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="13"/>
       <c r="C25" s="10"/>
       <c r="D25" s="19"/>
       <c r="E25" s="22"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="2:7" ht="24.95" customHeight="1">
+    <row r="26" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="10"/>
       <c r="D26" s="19"/>
       <c r="E26" s="22"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="2:7" ht="24.95" customHeight="1">
+    <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="19"/>
       <c r="E27" s="22"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="2:7" ht="24.95" customHeight="1">
+    <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="19"/>
       <c r="E28" s="22"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="2:7" ht="24.95" customHeight="1">
+    <row r="29" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="13"/>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="22"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="2:7" ht="24.95" customHeight="1">
+    <row r="30" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="13"/>
       <c r="C30" s="10"/>
       <c r="D30" s="19"/>
       <c r="E30" s="22"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="2:7" ht="24.95" customHeight="1">
+    <row r="31" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13"/>
       <c r="C31" s="10"/>
       <c r="D31" s="19"/>
       <c r="E31" s="22"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="2:7" ht="24.95" customHeight="1">
+    <row r="32" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="13"/>
       <c r="C32" s="10"/>
       <c r="D32" s="19"/>
       <c r="E32" s="22"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="2:7" ht="24.95" customHeight="1">
+    <row r="33" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
       <c r="E33" s="22"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="2:7" ht="24.95" customHeight="1">
+    <row r="34" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="10"/>
       <c r="D34" s="19"/>
       <c r="E34" s="22"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="2:7" ht="24.95" customHeight="1">
+    <row r="35" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="13"/>
       <c r="C35" s="10"/>
       <c r="D35" s="19"/>
       <c r="E35" s="22"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="2:7" ht="24.95" customHeight="1">
+    <row r="36" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="13"/>
       <c r="C36" s="10"/>
       <c r="D36" s="19"/>
       <c r="E36" s="22"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="2:7" ht="24.95" customHeight="1">
+    <row r="37" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="13"/>
       <c r="C37" s="10"/>
       <c r="D37" s="19"/>
       <c r="E37" s="22"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="2:7" ht="24.95" customHeight="1">
+    <row r="38" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="13"/>
       <c r="C38" s="10"/>
       <c r="D38" s="19"/>
       <c r="E38" s="22"/>
       <c r="G38" s="13"/>
     </row>
-    <row r="39" spans="2:7" ht="24.95" customHeight="1">
+    <row r="39" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="13"/>
       <c r="C39" s="10"/>
       <c r="D39" s="19"/>
       <c r="E39" s="22"/>
       <c r="G39" s="13"/>
     </row>
-    <row r="40" spans="2:7" ht="24.95" customHeight="1">
+    <row r="40" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="13"/>
       <c r="C40" s="10"/>
       <c r="D40" s="19"/>
       <c r="E40" s="22"/>
       <c r="G40" s="13"/>
     </row>
-    <row r="41" spans="2:7" ht="24.95" customHeight="1">
+    <row r="41" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="13"/>
       <c r="C41" s="10"/>
       <c r="D41" s="19"/>
       <c r="E41" s="22"/>
       <c r="G41" s="13"/>
     </row>
-    <row r="42" spans="2:7" ht="24.95" customHeight="1">
+    <row r="42" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="13"/>
       <c r="C42" s="10"/>
       <c r="D42" s="19"/>
       <c r="E42" s="22"/>
       <c r="G42" s="13"/>
     </row>
-    <row r="43" spans="2:7" ht="24.95" customHeight="1">
+    <row r="43" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="13"/>
       <c r="C43" s="10"/>
       <c r="D43" s="19"/>
       <c r="E43" s="22"/>
       <c r="G43" s="13"/>
     </row>
-    <row r="44" spans="2:7" ht="24.95" customHeight="1">
+    <row r="44" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="13"/>
       <c r="C44" s="10"/>
       <c r="D44" s="19"/>
       <c r="E44" s="22"/>
       <c r="G44" s="13"/>
     </row>
-    <row r="45" spans="2:7" ht="24.95" customHeight="1">
+    <row r="45" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="10"/>
       <c r="D45" s="19"/>
       <c r="E45" s="22"/>
       <c r="G45" s="13"/>
     </row>
-    <row r="46" spans="2:7" ht="24.95" customHeight="1">
+    <row r="46" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="13"/>
       <c r="C46" s="10"/>
       <c r="D46" s="19"/>
       <c r="E46" s="22"/>
       <c r="G46" s="13"/>
     </row>
-    <row r="47" spans="2:7" ht="24.95" customHeight="1">
+    <row r="47" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="13"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19"/>
       <c r="E47" s="22"/>
       <c r="G47" s="13"/>
     </row>
-    <row r="48" spans="2:7" ht="24.95" customHeight="1">
+    <row r="48" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13"/>
       <c r="C48" s="10"/>
       <c r="D48" s="19"/>
       <c r="E48" s="22"/>
       <c r="G48" s="13"/>
     </row>
-    <row r="49" spans="2:7" ht="24.95" customHeight="1">
+    <row r="49" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13"/>
       <c r="C49" s="10"/>
       <c r="D49" s="19"/>
       <c r="E49" s="22"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="50" spans="2:7" ht="24.95" customHeight="1">
+    <row r="50" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
       <c r="C50" s="10"/>
       <c r="D50" s="19"/>
       <c r="E50" s="22"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="2:7" ht="24.95" customHeight="1">
+    <row r="51" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13"/>
       <c r="C51" s="10"/>
       <c r="D51" s="19"/>
       <c r="E51" s="22"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="52" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
       <c r="C52" s="11"/>
       <c r="D52" s="20"/>
       <c r="E52" s="23"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="54" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="55" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="56" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="57" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="58" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="59" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="60" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="61" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="62" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="63" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="64" spans="2:7" ht="24.95" customHeight="1"/>
-    <row r="65" ht="24.95" customHeight="1"/>
-    <row r="66" ht="24.95" customHeight="1"/>
-    <row r="67" ht="24.95" customHeight="1"/>
-    <row r="68" ht="24.95" customHeight="1"/>
-    <row r="69" ht="24.95" customHeight="1"/>
-    <row r="70" ht="24.95" customHeight="1"/>
-    <row r="71" ht="24.95" customHeight="1"/>
-    <row r="72" ht="24.95" customHeight="1"/>
-    <row r="73" ht="24.95" customHeight="1"/>
-    <row r="74" ht="24.95" customHeight="1"/>
-    <row r="75" ht="24.95" customHeight="1"/>
-    <row r="76" ht="24.95" customHeight="1"/>
-    <row r="77" ht="24.95" customHeight="1"/>
-    <row r="78" ht="24.95" customHeight="1"/>
-    <row r="79" ht="24.95" customHeight="1"/>
-    <row r="80" ht="24.95" customHeight="1"/>
-    <row r="81" ht="24.95" customHeight="1"/>
-    <row r="82" ht="24.95" customHeight="1"/>
-    <row r="83" ht="24.95" customHeight="1"/>
-    <row r="84" ht="24.95" customHeight="1"/>
-    <row r="85" ht="24.95" customHeight="1"/>
-    <row r="86" ht="24.95" customHeight="1"/>
-    <row r="87" ht="24.95" customHeight="1"/>
-    <row r="88" ht="24.95" customHeight="1"/>
-    <row r="89" ht="24.95" customHeight="1"/>
-    <row r="90" ht="24.95" customHeight="1"/>
-    <row r="91" ht="24.95" customHeight="1"/>
-    <row r="92" ht="24.95" customHeight="1"/>
-    <row r="93" ht="24.95" customHeight="1"/>
-    <row r="94" ht="24.95" customHeight="1"/>
-    <row r="95" ht="24.95" customHeight="1"/>
-    <row r="96" ht="24.95" customHeight="1"/>
-    <row r="97" ht="24.95" customHeight="1"/>
-    <row r="98" ht="24.95" customHeight="1"/>
-    <row r="99" ht="24.95" customHeight="1"/>
-    <row r="100" ht="24.95" customHeight="1"/>
-    <row r="101" ht="24.95" customHeight="1"/>
-    <row r="102" ht="24.95" customHeight="1"/>
-    <row r="103" ht="24.95" customHeight="1"/>
-    <row r="104" ht="24.95" customHeight="1"/>
-    <row r="105" ht="24.95" customHeight="1"/>
-    <row r="106" ht="24.95" customHeight="1"/>
-    <row r="107" ht="24.95" customHeight="1"/>
-    <row r="108" ht="24.95" customHeight="1"/>
-    <row r="109" ht="24.95" customHeight="1"/>
-    <row r="110" ht="24.95" customHeight="1"/>
-    <row r="111" ht="24.95" customHeight="1"/>
-    <row r="112" ht="24.95" customHeight="1"/>
-    <row r="113" ht="24.95" customHeight="1"/>
-    <row r="114" ht="24.95" customHeight="1"/>
-    <row r="115" ht="24.95" customHeight="1"/>
-    <row r="116" ht="24.95" customHeight="1"/>
-    <row r="117" ht="24.95" customHeight="1"/>
-    <row r="118" ht="24.95" customHeight="1"/>
-    <row r="119" ht="24.95" customHeight="1"/>
-    <row r="120" ht="24.95" customHeight="1"/>
-    <row r="121" ht="24.95" customHeight="1"/>
-    <row r="122" ht="24.95" customHeight="1"/>
-    <row r="123" ht="24.95" customHeight="1"/>
-    <row r="124" ht="24.95" customHeight="1"/>
-    <row r="125" ht="24.95" customHeight="1"/>
-    <row r="126" ht="24.95" customHeight="1"/>
-    <row r="127" ht="24.95" customHeight="1"/>
-    <row r="128" ht="24.95" customHeight="1"/>
-    <row r="129" ht="24.95" customHeight="1"/>
-    <row r="130" ht="24.95" customHeight="1"/>
-    <row r="131" ht="24.95" customHeight="1"/>
-    <row r="132" ht="24.95" customHeight="1"/>
-    <row r="133" ht="24.95" customHeight="1"/>
-    <row r="134" ht="24.95" customHeight="1"/>
-    <row r="135" ht="24.95" customHeight="1"/>
-    <row r="136" ht="24.95" customHeight="1"/>
-    <row r="137" ht="24.95" customHeight="1"/>
-    <row r="138" ht="24.95" customHeight="1"/>
-    <row r="139" ht="24.95" customHeight="1"/>
-    <row r="140" ht="24.95" customHeight="1"/>
-    <row r="141" ht="24.95" customHeight="1"/>
-    <row r="142" ht="24.95" customHeight="1"/>
-    <row r="143" ht="24.95" customHeight="1"/>
-    <row r="144" ht="24.95" customHeight="1"/>
-    <row r="145" ht="24.95" customHeight="1"/>
-    <row r="146" ht="24.95" customHeight="1"/>
-    <row r="147" ht="24.95" customHeight="1"/>
-    <row r="148" ht="24.95" customHeight="1"/>
-    <row r="149" ht="24.95" customHeight="1"/>
-    <row r="150" ht="24.95" customHeight="1"/>
-    <row r="151" ht="24.95" customHeight="1"/>
-    <row r="152" ht="24.95" customHeight="1"/>
-    <row r="153" ht="24.95" customHeight="1"/>
-    <row r="154" ht="24.95" customHeight="1"/>
-    <row r="155" ht="24.95" customHeight="1"/>
-    <row r="156" ht="24.95" customHeight="1"/>
-    <row r="157" ht="24.95" customHeight="1"/>
-    <row r="158" ht="24.95" customHeight="1"/>
-    <row r="159" ht="24.95" customHeight="1"/>
-    <row r="160" ht="24.95" customHeight="1"/>
-    <row r="161" ht="24.95" customHeight="1"/>
-    <row r="162" ht="24.95" customHeight="1"/>
-    <row r="163" ht="24.95" customHeight="1"/>
-    <row r="164" ht="24.95" customHeight="1"/>
-    <row r="165" ht="24.95" customHeight="1"/>
-    <row r="166" ht="24.95" customHeight="1"/>
-    <row r="167" ht="24.95" customHeight="1"/>
-    <row r="168" ht="24.95" customHeight="1"/>
-    <row r="169" ht="24.95" customHeight="1"/>
-    <row r="170" ht="24.95" customHeight="1"/>
-    <row r="171" ht="24.95" customHeight="1"/>
-    <row r="172" ht="24.95" customHeight="1"/>
-    <row r="173" ht="24.95" customHeight="1"/>
-    <row r="174" ht="24.95" customHeight="1"/>
-    <row r="175" ht="24.95" customHeight="1"/>
-    <row r="176" ht="24.95" customHeight="1"/>
-    <row r="177" ht="24.95" customHeight="1"/>
-    <row r="178" ht="24.95" customHeight="1"/>
-    <row r="179" ht="24.95" customHeight="1"/>
-    <row r="180" ht="24.95" customHeight="1"/>
-    <row r="181" ht="24.95" customHeight="1"/>
-    <row r="182" ht="24.95" customHeight="1"/>
-    <row r="183" ht="24.95" customHeight="1"/>
-    <row r="184" ht="24.95" customHeight="1"/>
-    <row r="185" ht="24.95" customHeight="1"/>
-    <row r="186" ht="24.95" customHeight="1"/>
-    <row r="187" ht="24.95" customHeight="1"/>
-    <row r="188" ht="24.95" customHeight="1"/>
-    <row r="189" ht="24.95" customHeight="1"/>
-    <row r="190" ht="24.95" customHeight="1"/>
-    <row r="191" ht="24.95" customHeight="1"/>
-    <row r="192" ht="24.95" customHeight="1"/>
-    <row r="193" ht="24.95" customHeight="1"/>
-    <row r="194" ht="24.95" customHeight="1"/>
-    <row r="195" ht="24.95" customHeight="1"/>
-    <row r="196" ht="24.95" customHeight="1"/>
-    <row r="197" ht="24.95" customHeight="1"/>
-    <row r="198" ht="24.95" customHeight="1"/>
-    <row r="199" ht="24.95" customHeight="1"/>
-    <row r="200" ht="24.95" customHeight="1"/>
-    <row r="201" ht="24.95" customHeight="1"/>
-    <row r="202" ht="24.95" customHeight="1"/>
-    <row r="203" ht="24.95" customHeight="1"/>
-    <row r="204" ht="24.95" customHeight="1"/>
-    <row r="205" ht="24.95" customHeight="1"/>
-    <row r="206" ht="24.95" customHeight="1"/>
-    <row r="207" ht="24.95" customHeight="1"/>
-    <row r="208" ht="24.95" customHeight="1"/>
-    <row r="209" ht="24.95" customHeight="1"/>
-    <row r="210" ht="24.95" customHeight="1"/>
-    <row r="211" ht="24.95" customHeight="1"/>
-    <row r="212" ht="24.95" customHeight="1"/>
-    <row r="213" ht="24.95" customHeight="1"/>
-    <row r="214" ht="24.95" customHeight="1"/>
-    <row r="215" ht="24.95" customHeight="1"/>
-    <row r="216" ht="24.95" customHeight="1"/>
-    <row r="217" ht="24.95" customHeight="1"/>
-    <row r="218" ht="24.95" customHeight="1"/>
-    <row r="219" ht="24.95" customHeight="1"/>
-    <row r="220" ht="24.95" customHeight="1"/>
-    <row r="221" ht="24.95" customHeight="1"/>
-    <row r="222" ht="24.95" customHeight="1"/>
-    <row r="223" ht="24.95" customHeight="1"/>
-    <row r="224" ht="24.95" customHeight="1"/>
-    <row r="225" ht="24.95" customHeight="1"/>
-    <row r="226" ht="24.95" customHeight="1"/>
-    <row r="227" ht="24.95" customHeight="1"/>
-    <row r="228" ht="24.95" customHeight="1"/>
-    <row r="229" ht="24.95" customHeight="1"/>
-    <row r="230" ht="24.95" customHeight="1"/>
-    <row r="231" ht="24.95" customHeight="1"/>
-    <row r="232" ht="24.95" customHeight="1"/>
-    <row r="233" ht="24.95" customHeight="1"/>
-    <row r="234" ht="24.95" customHeight="1"/>
-    <row r="235" ht="24.95" customHeight="1"/>
-    <row r="236" ht="24.95" customHeight="1"/>
-    <row r="237" ht="24.95" customHeight="1"/>
-    <row r="238" ht="24.95" customHeight="1"/>
-    <row r="239" ht="24.95" customHeight="1"/>
-    <row r="240" ht="24.95" customHeight="1"/>
-    <row r="241" ht="24.95" customHeight="1"/>
-    <row r="242" ht="24.95" customHeight="1"/>
-    <row r="243" ht="24.95" customHeight="1"/>
-    <row r="244" ht="24.95" customHeight="1"/>
-    <row r="245" ht="24.95" customHeight="1"/>
-    <row r="246" ht="24.95" customHeight="1"/>
-    <row r="247" ht="24.95" customHeight="1"/>
-    <row r="248" ht="24.95" customHeight="1"/>
-    <row r="249" ht="24.95" customHeight="1"/>
-    <row r="250" ht="24.95" customHeight="1"/>
-    <row r="251" ht="24.95" customHeight="1"/>
-    <row r="252" ht="24.95" customHeight="1"/>
-    <row r="253" ht="24.95" customHeight="1"/>
-    <row r="254" ht="24.95" customHeight="1"/>
-    <row r="255" ht="24.95" customHeight="1"/>
-    <row r="256" ht="24.95" customHeight="1"/>
-    <row r="257" ht="24.95" customHeight="1"/>
-    <row r="258" ht="24.95" customHeight="1"/>
-    <row r="259" ht="24.95" customHeight="1"/>
-    <row r="260" ht="24.95" customHeight="1"/>
-    <row r="261" ht="24.95" customHeight="1"/>
-    <row r="262" ht="24.95" customHeight="1"/>
-    <row r="263" ht="24.95" customHeight="1"/>
-    <row r="264" ht="24.95" customHeight="1"/>
-    <row r="265" ht="24.95" customHeight="1"/>
-    <row r="266" ht="24.95" customHeight="1"/>
-    <row r="267" ht="24.95" customHeight="1"/>
-    <row r="268" ht="24.95" customHeight="1"/>
-    <row r="269" ht="24.95" customHeight="1"/>
-    <row r="270" ht="24.95" customHeight="1"/>
-    <row r="271" ht="24.95" customHeight="1"/>
-    <row r="272" ht="24.95" customHeight="1"/>
-    <row r="273" ht="24.95" customHeight="1"/>
-    <row r="274" ht="24.95" customHeight="1"/>
-    <row r="275" ht="24.95" customHeight="1"/>
-    <row r="276" ht="24.95" customHeight="1"/>
-    <row r="277" ht="24.95" customHeight="1"/>
-    <row r="278" ht="24.95" customHeight="1"/>
-    <row r="279" ht="24.95" customHeight="1"/>
-    <row r="280" ht="24.95" customHeight="1"/>
-    <row r="281" ht="24.95" customHeight="1"/>
-    <row r="282" ht="24.95" customHeight="1"/>
-    <row r="283" ht="24.95" customHeight="1"/>
-    <row r="284" ht="24.95" customHeight="1"/>
-    <row r="285" ht="24.95" customHeight="1"/>
-    <row r="286" ht="24.95" customHeight="1"/>
-    <row r="287" ht="24.95" customHeight="1"/>
-    <row r="288" ht="24.95" customHeight="1"/>
-    <row r="289" ht="24.95" customHeight="1"/>
-    <row r="290" ht="24.95" customHeight="1"/>
-    <row r="291" ht="24.95" customHeight="1"/>
-    <row r="292" ht="24.95" customHeight="1"/>
-    <row r="293" ht="24.95" customHeight="1"/>
-    <row r="294" ht="24.95" customHeight="1"/>
-    <row r="295" ht="24.95" customHeight="1"/>
-    <row r="296" ht="24.95" customHeight="1"/>
-    <row r="297" ht="24.95" customHeight="1"/>
-    <row r="298" ht="24.95" customHeight="1"/>
-    <row r="299" ht="24.95" customHeight="1"/>
-    <row r="300" ht="24.95" customHeight="1"/>
-    <row r="301" ht="24.95" customHeight="1"/>
-    <row r="302" ht="24.95" customHeight="1"/>
-    <row r="303" ht="24.95" customHeight="1"/>
-    <row r="304" ht="24.95" customHeight="1"/>
-    <row r="305" ht="24.95" customHeight="1"/>
-    <row r="306" ht="24.95" customHeight="1"/>
-    <row r="307" ht="24.95" customHeight="1"/>
-    <row r="308" ht="24.95" customHeight="1"/>
-    <row r="309" ht="24.95" customHeight="1"/>
-    <row r="310" ht="24.95" customHeight="1"/>
-    <row r="311" ht="24.95" customHeight="1"/>
-    <row r="312" ht="24.95" customHeight="1"/>
-    <row r="313" ht="24.95" customHeight="1"/>
-    <row r="314" ht="24.95" customHeight="1"/>
-    <row r="315" ht="24.95" customHeight="1"/>
-    <row r="316" ht="24.95" customHeight="1"/>
-    <row r="317" ht="24.95" customHeight="1"/>
-    <row r="318" ht="24.95" customHeight="1"/>
-    <row r="319" ht="24.95" customHeight="1"/>
-    <row r="320" ht="24.95" customHeight="1"/>
-    <row r="321" ht="24.95" customHeight="1"/>
-    <row r="322" ht="24.95" customHeight="1"/>
-    <row r="323" ht="24.95" customHeight="1"/>
-    <row r="324" ht="24.95" customHeight="1"/>
-    <row r="325" ht="24.95" customHeight="1"/>
-    <row r="326" ht="24.95" customHeight="1"/>
-    <row r="327" ht="24.95" customHeight="1"/>
-    <row r="328" ht="24.95" customHeight="1"/>
-    <row r="329" ht="24.95" customHeight="1"/>
-    <row r="330" ht="24.95" customHeight="1"/>
-    <row r="331" ht="24.95" customHeight="1"/>
-    <row r="332" ht="24.95" customHeight="1"/>
-    <row r="333" ht="24.95" customHeight="1"/>
-    <row r="334" ht="24.95" customHeight="1"/>
-    <row r="335" ht="24.95" customHeight="1"/>
-    <row r="336" ht="24.95" customHeight="1"/>
-    <row r="337" ht="24.95" customHeight="1"/>
-    <row r="338" ht="24.95" customHeight="1"/>
-    <row r="339" ht="24.95" customHeight="1"/>
-    <row r="340" ht="24.95" customHeight="1"/>
-    <row r="341" ht="24.95" customHeight="1"/>
-    <row r="342" ht="24.95" customHeight="1"/>
-    <row r="343" ht="24.95" customHeight="1"/>
-    <row r="344" ht="24.95" customHeight="1"/>
-    <row r="345" ht="24.95" customHeight="1"/>
-    <row r="346" ht="24.95" customHeight="1"/>
-    <row r="347" ht="24.95" customHeight="1"/>
-    <row r="348" ht="24.95" customHeight="1"/>
-    <row r="349" ht="24.95" customHeight="1"/>
-    <row r="350" ht="24.95" customHeight="1"/>
-    <row r="351" ht="24.95" customHeight="1"/>
-    <row r="352" ht="24.95" customHeight="1"/>
-    <row r="353" ht="24.95" customHeight="1"/>
-    <row r="354" ht="24.95" customHeight="1"/>
-    <row r="355" ht="24.95" customHeight="1"/>
-    <row r="356" ht="24.95" customHeight="1"/>
-    <row r="357" ht="24.95" customHeight="1"/>
-    <row r="358" ht="24.95" customHeight="1"/>
-    <row r="359" ht="24.95" customHeight="1"/>
-    <row r="360" ht="24.95" customHeight="1"/>
-    <row r="361" ht="24.95" customHeight="1"/>
-    <row r="362" ht="24.95" customHeight="1"/>
-    <row r="363" ht="24.95" customHeight="1"/>
-    <row r="364" ht="24.95" customHeight="1"/>
-    <row r="365" ht="24.95" customHeight="1"/>
-    <row r="366" ht="24.95" customHeight="1"/>
-    <row r="367" ht="24.95" customHeight="1"/>
-    <row r="368" ht="24.95" customHeight="1"/>
-    <row r="369" ht="24.95" customHeight="1"/>
-    <row r="370" ht="24.95" customHeight="1"/>
-    <row r="371" ht="24.95" customHeight="1"/>
-    <row r="372" ht="24.95" customHeight="1"/>
-    <row r="373" ht="24.95" customHeight="1"/>
-    <row r="374" ht="24.95" customHeight="1"/>
-    <row r="375" ht="24.95" customHeight="1"/>
-    <row r="376" ht="24.95" customHeight="1"/>
-    <row r="377" ht="24.95" customHeight="1"/>
-    <row r="378" ht="24.95" customHeight="1"/>
-    <row r="379" ht="24.95" customHeight="1"/>
-    <row r="380" ht="24.95" customHeight="1"/>
-    <row r="381" ht="24.95" customHeight="1"/>
-    <row r="382" ht="24.95" customHeight="1"/>
-    <row r="383" ht="24.95" customHeight="1"/>
-    <row r="384" ht="24.95" customHeight="1"/>
-    <row r="385" ht="24.95" customHeight="1"/>
-    <row r="386" ht="24.95" customHeight="1"/>
-    <row r="387" ht="24.95" customHeight="1"/>
-    <row r="388" ht="24.95" customHeight="1"/>
-    <row r="389" ht="24.95" customHeight="1"/>
-    <row r="390" ht="24.95" customHeight="1"/>
-    <row r="391" ht="24.95" customHeight="1"/>
-    <row r="392" ht="24.95" customHeight="1"/>
-    <row r="393" ht="24.95" customHeight="1"/>
-    <row r="394" ht="24.95" customHeight="1"/>
-    <row r="395" ht="24.95" customHeight="1"/>
-    <row r="396" ht="24.95" customHeight="1"/>
-    <row r="397" ht="24.95" customHeight="1"/>
-    <row r="398" ht="24.95" customHeight="1"/>
-    <row r="399" ht="24.95" customHeight="1"/>
-    <row r="400" ht="24.95" customHeight="1"/>
-    <row r="401" ht="24.95" customHeight="1"/>
-    <row r="402" ht="24.95" customHeight="1"/>
-    <row r="403" ht="24.95" customHeight="1"/>
-    <row r="404" ht="24.95" customHeight="1"/>
-    <row r="405" ht="24.95" customHeight="1"/>
-    <row r="406" ht="24.95" customHeight="1"/>
-    <row r="407" ht="24.95" customHeight="1"/>
-    <row r="408" ht="24.95" customHeight="1"/>
-    <row r="409" ht="24.95" customHeight="1"/>
-    <row r="410" ht="24.95" customHeight="1"/>
-    <row r="411" ht="24.95" customHeight="1"/>
-    <row r="412" ht="24.95" customHeight="1"/>
-    <row r="413" ht="24.95" customHeight="1"/>
-    <row r="414" ht="24.95" customHeight="1"/>
-    <row r="415" ht="24.95" customHeight="1"/>
-    <row r="416" ht="24.95" customHeight="1"/>
-    <row r="417" ht="24.95" customHeight="1"/>
-    <row r="418" ht="24.95" customHeight="1"/>
-    <row r="419" ht="24.95" customHeight="1"/>
-    <row r="420" ht="24.95" customHeight="1"/>
-    <row r="421" ht="24.95" customHeight="1"/>
-    <row r="422" ht="24.95" customHeight="1"/>
-    <row r="423" ht="24.95" customHeight="1"/>
-    <row r="424" ht="24.95" customHeight="1"/>
-    <row r="425" ht="24.95" customHeight="1"/>
-    <row r="426" ht="24.95" customHeight="1"/>
-    <row r="427" ht="24.95" customHeight="1"/>
-    <row r="428" ht="24.95" customHeight="1"/>
-    <row r="429" ht="24.95" customHeight="1"/>
-    <row r="430" ht="24.95" customHeight="1"/>
-    <row r="431" ht="24.95" customHeight="1"/>
-    <row r="432" ht="24.95" customHeight="1"/>
-    <row r="433" ht="24.95" customHeight="1"/>
-    <row r="434" ht="24.95" customHeight="1"/>
-    <row r="435" ht="24.95" customHeight="1"/>
-    <row r="436" ht="24.95" customHeight="1"/>
-    <row r="437" ht="24.95" customHeight="1"/>
-    <row r="438" ht="24.95" customHeight="1"/>
-    <row r="439" ht="24.95" customHeight="1"/>
-    <row r="440" ht="24.95" customHeight="1"/>
-    <row r="441" ht="24.95" customHeight="1"/>
-    <row r="442" ht="24.95" customHeight="1"/>
-    <row r="443" ht="24.95" customHeight="1"/>
-    <row r="444" ht="24.95" customHeight="1"/>
-    <row r="445" ht="24.95" customHeight="1"/>
-    <row r="446" ht="24.95" customHeight="1"/>
-    <row r="447" ht="24.95" customHeight="1"/>
-    <row r="448" ht="24.95" customHeight="1"/>
-    <row r="449" ht="24.95" customHeight="1"/>
-    <row r="450" ht="24.95" customHeight="1"/>
-    <row r="451" ht="24.95" customHeight="1"/>
-    <row r="452" ht="24.95" customHeight="1"/>
-    <row r="453" ht="24.95" customHeight="1"/>
-    <row r="454" ht="24.95" customHeight="1"/>
-    <row r="455" ht="24.95" customHeight="1"/>
-    <row r="456" ht="24.95" customHeight="1"/>
-    <row r="457" ht="24.95" customHeight="1"/>
-    <row r="458" ht="24.95" customHeight="1"/>
-    <row r="459" ht="24.95" customHeight="1"/>
-    <row r="460" ht="24.95" customHeight="1"/>
-    <row r="461" ht="24.95" customHeight="1"/>
-    <row r="462" ht="24.95" customHeight="1"/>
-    <row r="463" ht="24.95" customHeight="1"/>
-    <row r="464" ht="24.95" customHeight="1"/>
-    <row r="465" ht="24.95" customHeight="1"/>
-    <row r="466" ht="24.95" customHeight="1"/>
-    <row r="467" ht="24.95" customHeight="1"/>
-    <row r="468" ht="24.95" customHeight="1"/>
-    <row r="469" ht="24.95" customHeight="1"/>
-    <row r="470" ht="24.95" customHeight="1"/>
-    <row r="471" ht="24.95" customHeight="1"/>
-    <row r="472" ht="24.95" customHeight="1"/>
-    <row r="473" ht="24.95" customHeight="1"/>
-    <row r="474" ht="24.95" customHeight="1"/>
-    <row r="475" ht="24.95" customHeight="1"/>
-    <row r="476" ht="24.95" customHeight="1"/>
-    <row r="477" ht="24.95" customHeight="1"/>
-    <row r="478" ht="24.95" customHeight="1"/>
-    <row r="479" ht="24.95" customHeight="1"/>
-    <row r="480" ht="24.95" customHeight="1"/>
-    <row r="481" ht="24.95" customHeight="1"/>
-    <row r="482" ht="24.95" customHeight="1"/>
-    <row r="483" ht="24.95" customHeight="1"/>
-    <row r="484" ht="24.95" customHeight="1"/>
-    <row r="485" ht="24.95" customHeight="1"/>
-    <row r="486" ht="24.95" customHeight="1"/>
-    <row r="487" ht="24.95" customHeight="1"/>
-    <row r="488" ht="24.95" customHeight="1"/>
-    <row r="489" ht="24.95" customHeight="1"/>
-    <row r="490" ht="24.95" customHeight="1"/>
-    <row r="491" ht="24.95" customHeight="1"/>
-    <row r="492" ht="24.95" customHeight="1"/>
-    <row r="493" ht="24.95" customHeight="1"/>
-    <row r="494" ht="24.95" customHeight="1"/>
-    <row r="495" ht="24.95" customHeight="1"/>
-    <row r="496" ht="24.95" customHeight="1"/>
-    <row r="497" ht="24.95" customHeight="1"/>
-    <row r="498" ht="24.95" customHeight="1"/>
-    <row r="499" ht="24.95" customHeight="1"/>
-    <row r="500" ht="24.95" customHeight="1"/>
-    <row r="501" ht="24.95" customHeight="1"/>
-    <row r="502" ht="24.95" customHeight="1"/>
-    <row r="503" ht="24.95" customHeight="1"/>
-    <row r="504" ht="24.95" customHeight="1"/>
-    <row r="505" ht="24.95" customHeight="1"/>
-    <row r="506" ht="24.95" customHeight="1"/>
-    <row r="507" ht="24.95" customHeight="1"/>
-    <row r="508" ht="24.95" customHeight="1"/>
-    <row r="509" ht="24.95" customHeight="1"/>
-    <row r="510" ht="24.95" customHeight="1"/>
-    <row r="511" ht="24.95" customHeight="1"/>
-    <row r="512" ht="24.95" customHeight="1"/>
-    <row r="513" ht="24.95" customHeight="1"/>
-    <row r="514" ht="24.95" customHeight="1"/>
-    <row r="515" ht="24.95" customHeight="1"/>
-    <row r="516" ht="24.95" customHeight="1"/>
-    <row r="517" ht="24.95" customHeight="1"/>
-    <row r="518" ht="24.95" customHeight="1"/>
-    <row r="519" ht="24.95" customHeight="1"/>
-    <row r="520" ht="24.95" customHeight="1"/>
-    <row r="521" ht="24.95" customHeight="1"/>
-    <row r="522" ht="24.95" customHeight="1"/>
-    <row r="523" ht="24.95" customHeight="1"/>
-    <row r="524" ht="24.95" customHeight="1"/>
-    <row r="525" ht="24.95" customHeight="1"/>
-    <row r="526" ht="24.95" customHeight="1"/>
-    <row r="527" ht="24.95" customHeight="1"/>
-    <row r="528" ht="24.95" customHeight="1"/>
-    <row r="529" ht="24.95" customHeight="1"/>
-    <row r="530" ht="24.95" customHeight="1"/>
-    <row r="531" ht="24.95" customHeight="1"/>
-    <row r="532" ht="24.95" customHeight="1"/>
-    <row r="533" ht="24.95" customHeight="1"/>
-    <row r="534" ht="24.95" customHeight="1"/>
-    <row r="535" ht="24.95" customHeight="1"/>
-    <row r="536" ht="24.95" customHeight="1"/>
-    <row r="537" ht="24.95" customHeight="1"/>
-    <row r="538" ht="24.95" customHeight="1"/>
-    <row r="539" ht="24.95" customHeight="1"/>
-    <row r="540" ht="24.95" customHeight="1"/>
-    <row r="541" ht="24.95" customHeight="1"/>
-    <row r="542" ht="24.95" customHeight="1"/>
-    <row r="543" ht="24.95" customHeight="1"/>
-    <row r="544" ht="24.95" customHeight="1"/>
-    <row r="545" ht="24.95" customHeight="1"/>
-    <row r="546" ht="24.95" customHeight="1"/>
-    <row r="547" ht="24.95" customHeight="1"/>
-    <row r="548" ht="24.95" customHeight="1"/>
-    <row r="549" ht="24.95" customHeight="1"/>
-    <row r="550" ht="24.95" customHeight="1"/>
-    <row r="551" ht="24.95" customHeight="1"/>
-    <row r="552" ht="24.95" customHeight="1"/>
-    <row r="553" ht="24.95" customHeight="1"/>
-    <row r="554" ht="24.95" customHeight="1"/>
-    <row r="555" ht="24.95" customHeight="1"/>
-    <row r="556" ht="24.95" customHeight="1"/>
-    <row r="557" ht="24.95" customHeight="1"/>
-    <row r="558" ht="24.95" customHeight="1"/>
-    <row r="559" ht="24.95" customHeight="1"/>
-    <row r="560" ht="24.95" customHeight="1"/>
-    <row r="561" ht="24.95" customHeight="1"/>
-    <row r="562" ht="24.95" customHeight="1"/>
-    <row r="563" ht="24.95" customHeight="1"/>
-    <row r="564" ht="24.95" customHeight="1"/>
-    <row r="565" ht="24.95" customHeight="1"/>
-    <row r="566" ht="24.95" customHeight="1"/>
-    <row r="567" ht="24.95" customHeight="1"/>
-    <row r="568" ht="24.95" customHeight="1"/>
-    <row r="569" ht="24.95" customHeight="1"/>
-    <row r="570" ht="24.95" customHeight="1"/>
-    <row r="571" ht="24.95" customHeight="1"/>
-    <row r="572" ht="24.95" customHeight="1"/>
-    <row r="573" ht="24.95" customHeight="1"/>
-    <row r="574" ht="24.95" customHeight="1"/>
-    <row r="575" ht="24.95" customHeight="1"/>
-    <row r="576" ht="24.95" customHeight="1"/>
-    <row r="577" ht="24.95" customHeight="1"/>
-    <row r="578" ht="24.95" customHeight="1"/>
-    <row r="579" ht="24.95" customHeight="1"/>
-    <row r="580" ht="24.95" customHeight="1"/>
-    <row r="581" ht="24.95" customHeight="1"/>
-    <row r="582" ht="24.95" customHeight="1"/>
-    <row r="583" ht="24.95" customHeight="1"/>
-    <row r="584" ht="24.95" customHeight="1"/>
-    <row r="585" ht="24.95" customHeight="1"/>
-    <row r="586" ht="24.95" customHeight="1"/>
-    <row r="587" ht="24.95" customHeight="1"/>
-    <row r="588" ht="24.95" customHeight="1"/>
-    <row r="589" ht="24.95" customHeight="1"/>
-    <row r="590" ht="24.95" customHeight="1"/>
-    <row r="591" ht="24.95" customHeight="1"/>
-    <row r="592" ht="24.95" customHeight="1"/>
-    <row r="593" ht="24.95" customHeight="1"/>
-    <row r="594" ht="24.95" customHeight="1"/>
-    <row r="595" ht="24.95" customHeight="1"/>
-    <row r="596" ht="24.95" customHeight="1"/>
-    <row r="597" ht="24.95" customHeight="1"/>
-    <row r="598" ht="24.95" customHeight="1"/>
-    <row r="599" ht="24.95" customHeight="1"/>
-    <row r="600" ht="24.95" customHeight="1"/>
-    <row r="601" ht="24.95" customHeight="1"/>
-    <row r="602" ht="24.95" customHeight="1"/>
-    <row r="603" ht="24.95" customHeight="1"/>
-    <row r="604" ht="24.95" customHeight="1"/>
-    <row r="605" ht="24.95" customHeight="1"/>
-    <row r="606" ht="24.95" customHeight="1"/>
-    <row r="607" ht="24.95" customHeight="1"/>
-    <row r="608" ht="24.95" customHeight="1"/>
-    <row r="609" ht="24.95" customHeight="1"/>
-    <row r="610" ht="24.95" customHeight="1"/>
-    <row r="611" ht="24.95" customHeight="1"/>
-    <row r="612" ht="24.95" customHeight="1"/>
-    <row r="613" ht="24.95" customHeight="1"/>
-    <row r="614" ht="24.95" customHeight="1"/>
-    <row r="615" ht="24.95" customHeight="1"/>
-    <row r="616" ht="24.95" customHeight="1"/>
-    <row r="617" ht="24.95" customHeight="1"/>
-    <row r="618" ht="24.95" customHeight="1"/>
-    <row r="619" ht="24.95" customHeight="1"/>
-    <row r="620" ht="24.95" customHeight="1"/>
-    <row r="621" ht="24.95" customHeight="1"/>
-    <row r="622" ht="24.95" customHeight="1"/>
-    <row r="623" ht="24.95" customHeight="1"/>
-    <row r="624" ht="24.95" customHeight="1"/>
-    <row r="625" ht="24.95" customHeight="1"/>
-    <row r="626" ht="24.95" customHeight="1"/>
-    <row r="627" ht="24.95" customHeight="1"/>
-    <row r="628" ht="24.95" customHeight="1"/>
-    <row r="629" ht="24.95" customHeight="1"/>
-    <row r="630" ht="24.95" customHeight="1"/>
-    <row r="631" ht="24.95" customHeight="1"/>
-    <row r="632" ht="24.95" customHeight="1"/>
-    <row r="633" ht="24.95" customHeight="1"/>
-    <row r="634" ht="24.95" customHeight="1"/>
-    <row r="635" ht="24.95" customHeight="1"/>
-    <row r="636" ht="24.95" customHeight="1"/>
-    <row r="637" ht="24.95" customHeight="1"/>
-    <row r="638" ht="24.95" customHeight="1"/>
-    <row r="639" ht="24.95" customHeight="1"/>
-    <row r="640" ht="24.95" customHeight="1"/>
-    <row r="641" ht="24.95" customHeight="1"/>
-    <row r="642" ht="24.95" customHeight="1"/>
-    <row r="643" ht="24.95" customHeight="1"/>
-    <row r="644" ht="24.95" customHeight="1"/>
-    <row r="645" ht="24.95" customHeight="1"/>
-    <row r="646" ht="24.95" customHeight="1"/>
-    <row r="647" ht="24.95" customHeight="1"/>
-    <row r="648" ht="24.95" customHeight="1"/>
-    <row r="649" ht="24.95" customHeight="1"/>
-    <row r="650" ht="24.95" customHeight="1"/>
-    <row r="651" ht="24.95" customHeight="1"/>
-    <row r="652" ht="24.95" customHeight="1"/>
-    <row r="653" ht="24.95" customHeight="1"/>
-    <row r="654" ht="24.95" customHeight="1"/>
-    <row r="655" ht="24.95" customHeight="1"/>
-    <row r="656" ht="24.95" customHeight="1"/>
-    <row r="657" ht="24.95" customHeight="1"/>
-    <row r="658" ht="24.95" customHeight="1"/>
-    <row r="659" ht="24.95" customHeight="1"/>
-    <row r="660" ht="24.95" customHeight="1"/>
-    <row r="661" ht="24.95" customHeight="1"/>
-    <row r="662" ht="24.95" customHeight="1"/>
-    <row r="663" ht="24.95" customHeight="1"/>
-    <row r="664" ht="24.95" customHeight="1"/>
-    <row r="665" ht="24.95" customHeight="1"/>
-    <row r="666" ht="24.95" customHeight="1"/>
-    <row r="667" ht="24.95" customHeight="1"/>
-    <row r="668" ht="24.95" customHeight="1"/>
-    <row r="669" ht="24.95" customHeight="1"/>
-    <row r="670" ht="24.95" customHeight="1"/>
-    <row r="671" ht="24.95" customHeight="1"/>
-    <row r="672" ht="24.95" customHeight="1"/>
-    <row r="673" ht="24.95" customHeight="1"/>
-    <row r="674" ht="24.95" customHeight="1"/>
-    <row r="675" ht="24.95" customHeight="1"/>
-    <row r="676" ht="24.95" customHeight="1"/>
-    <row r="677" ht="24.95" customHeight="1"/>
-    <row r="678" ht="24.95" customHeight="1"/>
-    <row r="679" ht="24.95" customHeight="1"/>
-    <row r="680" ht="24.95" customHeight="1"/>
-    <row r="681" ht="24.95" customHeight="1"/>
-    <row r="682" ht="24.95" customHeight="1"/>
-    <row r="683" ht="24.95" customHeight="1"/>
-    <row r="684" ht="24.95" customHeight="1"/>
-    <row r="685" ht="24.95" customHeight="1"/>
-    <row r="686" ht="24.95" customHeight="1"/>
-    <row r="687" ht="24.95" customHeight="1"/>
-    <row r="688" ht="24.95" customHeight="1"/>
-    <row r="689" ht="24.95" customHeight="1"/>
-    <row r="690" ht="24.95" customHeight="1"/>
-    <row r="691" ht="24.95" customHeight="1"/>
-    <row r="692" ht="24.95" customHeight="1"/>
-    <row r="693" ht="24.95" customHeight="1"/>
-    <row r="694" ht="24.95" customHeight="1"/>
-    <row r="695" ht="24.95" customHeight="1"/>
-    <row r="696" ht="24.95" customHeight="1"/>
-    <row r="697" ht="24.95" customHeight="1"/>
-    <row r="698" ht="24.95" customHeight="1"/>
-    <row r="699" ht="24.95" customHeight="1"/>
-    <row r="700" ht="24.95" customHeight="1"/>
-    <row r="701" ht="24.95" customHeight="1"/>
-    <row r="702" ht="24.95" customHeight="1"/>
-    <row r="703" ht="24.95" customHeight="1"/>
-    <row r="704" ht="24.95" customHeight="1"/>
-    <row r="705" ht="24.95" customHeight="1"/>
-    <row r="706" ht="24.95" customHeight="1"/>
-    <row r="707" ht="24.95" customHeight="1"/>
-    <row r="708" ht="24.95" customHeight="1"/>
-    <row r="709" ht="24.95" customHeight="1"/>
-    <row r="710" ht="24.95" customHeight="1"/>
-    <row r="711" ht="24.95" customHeight="1"/>
-    <row r="712" ht="24.95" customHeight="1"/>
-    <row r="713" ht="24.95" customHeight="1"/>
-    <row r="714" ht="24.95" customHeight="1"/>
-    <row r="715" ht="24.95" customHeight="1"/>
-    <row r="716" ht="24.95" customHeight="1"/>
-    <row r="717" ht="24.95" customHeight="1"/>
-    <row r="718" ht="24.95" customHeight="1"/>
-    <row r="719" ht="24.95" customHeight="1"/>
-    <row r="720" ht="24.95" customHeight="1"/>
-    <row r="721" ht="24.95" customHeight="1"/>
-    <row r="722" ht="24.95" customHeight="1"/>
-    <row r="723" ht="24.95" customHeight="1"/>
-    <row r="724" ht="24.95" customHeight="1"/>
-    <row r="725" ht="24.95" customHeight="1"/>
-    <row r="726" ht="24.95" customHeight="1"/>
-    <row r="727" ht="24.95" customHeight="1"/>
-    <row r="728" ht="24.95" customHeight="1"/>
-    <row r="729" ht="24.95" customHeight="1"/>
-    <row r="730" ht="24.95" customHeight="1"/>
-    <row r="731" ht="24.95" customHeight="1"/>
-    <row r="732" ht="24.95" customHeight="1"/>
-    <row r="733" ht="24.95" customHeight="1"/>
-    <row r="734" ht="24.95" customHeight="1"/>
-    <row r="735" ht="24.95" customHeight="1"/>
-    <row r="736" ht="24.95" customHeight="1"/>
-    <row r="737" ht="24.95" customHeight="1"/>
-    <row r="738" ht="24.95" customHeight="1"/>
-    <row r="739" ht="24.95" customHeight="1"/>
-    <row r="740" ht="24.95" customHeight="1"/>
-    <row r="741" ht="24.95" customHeight="1"/>
-    <row r="742" ht="24.95" customHeight="1"/>
-    <row r="743" ht="24.95" customHeight="1"/>
-    <row r="744" ht="24.95" customHeight="1"/>
-    <row r="745" ht="24.95" customHeight="1"/>
-    <row r="746" ht="24.95" customHeight="1"/>
-    <row r="747" ht="24.95" customHeight="1"/>
-    <row r="748" ht="24.95" customHeight="1"/>
-    <row r="749" ht="24.95" customHeight="1"/>
-    <row r="750" ht="24.95" customHeight="1"/>
-    <row r="751" ht="24.95" customHeight="1"/>
-    <row r="752" ht="24.95" customHeight="1"/>
-    <row r="753" ht="24.95" customHeight="1"/>
-    <row r="754" ht="24.95" customHeight="1"/>
-    <row r="755" ht="24.95" customHeight="1"/>
-    <row r="756" ht="24.95" customHeight="1"/>
+    <row r="53" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:D1"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E3AB59-284D-4716-8A26-CC5FFA9DFD14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9C1A6-3784-4FBD-8B74-47CD7A2844D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -74,22 +74,16 @@
     <t>29/03/2020</t>
   </si>
   <si>
-    <t>9:20pm</t>
-  </si>
-  <si>
     <t>Started reading about the implementation of Arithmetic Unit</t>
   </si>
   <si>
-    <t>9:50pm</t>
+    <t>Setup modelsim</t>
   </si>
   <si>
-    <t>9:55pm</t>
+    <t>30/03/2020</t>
   </si>
   <si>
-    <t>10:45pm</t>
-  </si>
-  <si>
-    <t>Setup modelsim</t>
+    <t>Finished full adder and ripple adder implementation, start looking into arithmetic unit</t>
   </si>
 </sst>
 </file>
@@ -677,7 +671,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,14 +740,14 @@
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="18">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,22 +757,32 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="19">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.87083333333333324</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
-      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E3AB59-284D-4716-8A26-CC5FFA9DFD14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEC8F6-05FE-4A0D-BFD2-BDD59D268FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Activity Log" sheetId="1" r:id="rId1"/>
@@ -74,22 +74,22 @@
     <t>29/03/2020</t>
   </si>
   <si>
-    <t>9:20pm</t>
-  </si>
-  <si>
     <t>Started reading about the implementation of Arithmetic Unit</t>
   </si>
   <si>
-    <t>9:50pm</t>
+    <t>Setup modelsim</t>
   </si>
   <si>
-    <t>9:55pm</t>
+    <t>30/03/2020</t>
   </si>
   <si>
-    <t>10:45pm</t>
+    <t>31/03/2020</t>
   </si>
   <si>
-    <t>Setup modelsim</t>
+    <t>Completed full adder and ripple adder</t>
+  </si>
+  <si>
+    <t>Finished Arithmetic unit</t>
   </si>
 </sst>
 </file>
@@ -677,7 +677,7 @@
   <dimension ref="A1:G756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,14 +746,14 @@
       <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="18">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -763,29 +763,49 @@
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="19">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="D9" s="19">
+        <v>0.8618055555555556</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="22"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="22"/>
-      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEC8F6-05FE-4A0D-BFD2-BDD59D268FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADCF9BE-5D3A-4DAC-B148-6BE61E3E7E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -90,6 +90,21 @@
   </si>
   <si>
     <t>Finished Arithmetic unit</t>
+  </si>
+  <si>
+    <t>01/04/2020</t>
+  </si>
+  <si>
+    <t>Help debug arithmetic unit</t>
+  </si>
+  <si>
+    <t>02/04/2020</t>
+  </si>
+  <si>
+    <t>Screenshots of functional simulation waves</t>
+  </si>
+  <si>
+    <t>Working on documentations and project report</t>
   </si>
 </sst>
 </file>
@@ -676,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,25 +823,51 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="13"/>
+      <c r="B10" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.68194444444444446</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DEC8F6-05FE-4A0D-BFD2-BDD59D268FF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A73E9-B3D7-4385-B4C6-3B9249E20071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -89,7 +89,22 @@
     <t>Completed full adder and ripple adder</t>
   </si>
   <si>
-    <t>Finished Arithmetic unit</t>
+    <t>01/04/2020</t>
+  </si>
+  <si>
+    <t>Help debug arithmetic unit</t>
+  </si>
+  <si>
+    <t>worked Arithmetic unit</t>
+  </si>
+  <si>
+    <t>02/04/2020</t>
+  </si>
+  <si>
+    <t>Screenshots of waves of functional simulation</t>
+  </si>
+  <si>
+    <t>Worked on documentations</t>
   </si>
 </sst>
 </file>
@@ -676,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,29 +819,55 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="G9" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="13"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="13"/>
+      <c r="D10" s="19">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="13"/>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="22"/>
-      <c r="G12" s="13"/>
+      <c r="C12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602A73E9-B3D7-4385-B4C6-3B9249E20071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC1050-9E00-4D2E-9F60-F629B64EDDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -71,40 +71,37 @@
     <t>Group Number: 54</t>
   </si>
   <si>
-    <t>29/03/2020</t>
-  </si>
-  <si>
     <t>Started reading about the implementation of Arithmetic Unit</t>
-  </si>
-  <si>
-    <t>Setup modelsim</t>
-  </si>
-  <si>
-    <t>30/03/2020</t>
-  </si>
-  <si>
-    <t>31/03/2020</t>
-  </si>
-  <si>
-    <t>Completed full adder and ripple adder</t>
-  </si>
-  <si>
-    <t>01/04/2020</t>
   </si>
   <si>
     <t>Help debug arithmetic unit</t>
   </si>
   <si>
-    <t>worked Arithmetic unit</t>
-  </si>
-  <si>
-    <t>02/04/2020</t>
-  </si>
-  <si>
     <t>Screenshots of waves of functional simulation</t>
   </si>
   <si>
-    <t>Worked on documentations</t>
+    <t>Writing up report and proofreading</t>
+  </si>
+  <si>
+    <t>Cleaning up documentations and finishing up</t>
+  </si>
+  <si>
+    <t>Setting up work environment, git and modelsim</t>
+  </si>
+  <si>
+    <t>Worked on arithmetic unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on ripple adder </t>
+  </si>
+  <si>
+    <t>Worked on full adder</t>
+  </si>
+  <si>
+    <t>Helping with screenshots of timing simulations</t>
+  </si>
+  <si>
+    <t>Start working on documentations, screenshot descriptions, etc.</t>
   </si>
 </sst>
 </file>
@@ -691,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,8 +755,8 @@
       <c r="B6" s="12">
         <v>4794</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
+      <c r="C6" s="9">
+        <v>43919</v>
       </c>
       <c r="D6" s="18">
         <v>0.88888888888888884</v>
@@ -768,15 +765,15 @@
         <v>0.90972222222222221</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13">
         <v>4794</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
+      <c r="C7" s="10">
+        <v>43919</v>
       </c>
       <c r="D7" s="19">
         <v>0.91319444444444453</v>
@@ -785,117 +782,161 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="13">
         <v>4794</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>12</v>
+      <c r="C8" s="10">
+        <v>43920</v>
       </c>
       <c r="D8" s="19">
         <v>0.86805555555555547</v>
       </c>
       <c r="E8" s="22">
-        <v>0.95138888888888884</v>
+        <v>0.90625</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13">
         <v>4794</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>13</v>
+      <c r="C9" s="10">
+        <v>43920</v>
       </c>
       <c r="D9" s="19">
-        <v>0.8618055555555556</v>
+        <v>0.90625</v>
       </c>
       <c r="E9" s="22">
-        <v>0.43055555555555558</v>
+        <v>0.95138888888888884</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="13">
         <v>4794</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="10">
+        <v>43921</v>
+      </c>
+      <c r="D10" s="19">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.93055555555555547</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="19">
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C11" s="10">
+        <v>43922</v>
+      </c>
+      <c r="D11" s="19">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E11" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="10" t="s">
+      <c r="G11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C12" s="10">
+        <v>43923</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C13" s="10">
+        <v>43923</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="G11" s="13" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C14" s="10">
+        <v>43923</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="13"/>
-      <c r="C12" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="22"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="22"/>
-      <c r="G14" s="13"/>
-    </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="22"/>
-      <c r="G15" s="13"/>
+      <c r="B15" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C15" s="10">
+        <v>43924</v>
+      </c>
+      <c r="D15" s="19">
+        <v>0.71875</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="22"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="13">
+        <v>4794</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
@@ -1144,13 +1185,23 @@
     </row>
     <row r="52" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="14"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="23"/>
-      <c r="G52" s="14"/>
-    </row>
-    <row r="53" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="22"/>
+      <c r="G52" s="13"/>
+    </row>
+    <row r="53" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="10"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="22"/>
+      <c r="G53" s="13"/>
+    </row>
+    <row r="54" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="11"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="23"/>
+      <c r="G54" s="14"/>
+    </row>
     <row r="55" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
+++ b/ExU/Documentation/FP1-log-G54-4794-350-1201.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Documents\GitHub\ENSC350FP\ExU\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26BC1050-9E00-4D2E-9F60-F629B64EDDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DFC0205-6E62-4755-9589-6D5FD279C51D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5C666647-60C4-4C14-A5E1-8900F85EBB7F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>last  4 digits</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Started reading about the implementation of Arithmetic Unit</t>
   </si>
   <si>
-    <t>Help debug arithmetic unit</t>
-  </si>
-  <si>
     <t>Screenshots of waves of functional simulation</t>
   </si>
   <si>
@@ -89,19 +86,25 @@
     <t>Setting up work environment, git and modelsim</t>
   </si>
   <si>
-    <t>Worked on arithmetic unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on ripple adder </t>
-  </si>
-  <si>
-    <t>Worked on full adder</t>
-  </si>
-  <si>
     <t>Helping with screenshots of timing simulations</t>
   </si>
   <si>
     <t>Start working on documentations, screenshot descriptions, etc.</t>
+  </si>
+  <si>
+    <t>Adding anotations to pdf and submitting</t>
+  </si>
+  <si>
+    <t>Worked on arithmetic unit implementing Adder, Zero, ExtWord MUX, AltB  and AltBu</t>
+  </si>
+  <si>
+    <t>Help debug arithmetic unit (errors with sign extension) Output ExtWord was not matching with test bench values</t>
+  </si>
+  <si>
+    <t>Worked on full adder implementation</t>
+  </si>
+  <si>
+    <t>Worked on ripple adder implementation</t>
   </si>
 </sst>
 </file>
@@ -688,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD00F48-C874-4451-94D3-83F5136CE4E1}">
   <dimension ref="A1:G756"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +785,7 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -799,7 +802,7 @@
         <v>0.90625</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,7 +819,7 @@
         <v>0.95138888888888884</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,7 +836,7 @@
         <v>0.93055555555555547</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -850,7 +853,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -867,7 +870,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -884,7 +887,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -901,7 +904,7 @@
         <v>0.94791666666666663</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -918,7 +921,7 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -932,18 +935,26 @@
         <v>0.61111111111111105</v>
       </c>
       <c r="E16" s="22">
-        <v>0.64583333333333337</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="22"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="10">
+        <v>43926</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="13"/>
